--- a/xlsx/关塔那摩湾_intext.xlsx
+++ b/xlsx/关塔那摩湾_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_关塔那摩湾</t>
+    <t>政策_政策_美国_关塔那摩湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%96%87</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%A1%94%E9%82%A3%E6%91%A9%E7%81%A3%E6%B5%B7%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>關塔那摩灣海軍基地</t>
+    <t>关塔那摩湾海军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%98%E7%95%99</t>
@@ -107,37 +107,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
+    <t>美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%AD%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>保護國</t>
+    <t>保护国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%BA%A5%E9%87%91%E8%90%8A</t>
   </si>
   <si>
-    <t>威廉·麥金萊</t>
+    <t>威廉·麦金莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E7%89%B9%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>古巴總統</t>
+    <t>古巴总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E5%9F%83%E6%96%AF%E7%89%B9%E6%8B%89%E8%BE%BE%C2%B7%E5%B8%95%E5%B0%94%E9%A9%AC</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>起義</t>
+    <t>起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -191,25 +191,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%89%B9%E7%BE%85</t>
   </si>
   <si>
-    <t>卡斯特羅</t>
+    <t>卡斯特罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
+    <t>牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A3%E6%B0%91</t>
   </si>
   <si>
-    <t>難民</t>
+    <t>难民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9C%B0%E7%BB%84%E7%BB%87</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%A1%94%E9%82%A3%E6%91%A9%E7%81%A3%E6%8B%98%E7%95%99%E7%87%9F</t>
   </si>
   <si>
-    <t>關塔那摩灣拘留營</t>
+    <t>关塔那摩湾拘留营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%AE%98%E8%88%87%E9%AD%94%E9%AC%BC</t>
   </si>
   <si>
-    <t>軍官與魔鬼</t>
+    <t>军官与魔鬼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E5%A3%AB%E9%82%A6</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E7%9C%BC</t>
   </si>
   <si>
-    <t>黃金眼</t>
+    <t>黄金眼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福克斯廣播公司</t>
+    <t>福克斯广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/24_(%E9%9B%BB%E8%A6%96%E5%8A%87)</t>
   </si>
   <si>
-    <t>24 (電視劇)</t>
+    <t>24 (电视剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%9C%B0%E6%88%B0%E8%AD%A62</t>
   </si>
   <si>
-    <t>絕地戰警2</t>
+    <t>绝地战警2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E4%BF%9D%E7%9C%9F%E8%A6%81%E5%91%BD</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E9%BE%8D%E8%AB%9C%E5%BD%B1V_%E5%8E%9F%E7%88%86%E9%BB%9E</t>
   </si>
   <si>
-    <t>潛龍諜影V 原爆點</t>
+    <t>潜龙谍影V 原爆点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
